--- a/team_specific_matrix/Vanderbilt_A.xlsx
+++ b/team_specific_matrix/Vanderbilt_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2027027027027027</v>
+        <v>0.1971326164874552</v>
       </c>
       <c r="C2">
-        <v>0.581081081081081</v>
+        <v>0.5842293906810035</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01351351351351351</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1126126126126126</v>
+        <v>0.1218637992831541</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09009009009009009</v>
+        <v>0.07526881720430108</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01470588235294118</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C3">
-        <v>0.03676470588235294</v>
+        <v>0.04069767441860465</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03676470588235294</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6617647058823529</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.25</v>
+        <v>0.2267441860465116</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.103448275862069</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5862068965517241</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3103448275862069</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09677419354838709</v>
+        <v>0.09</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006451612903225806</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
-        <v>0.006451612903225806</v>
+        <v>0.005</v>
       </c>
       <c r="F6">
-        <v>0.07096774193548387</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1806451612903226</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03225806451612903</v>
+        <v>0.025</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2064516129032258</v>
+        <v>0.19</v>
       </c>
       <c r="R6">
-        <v>0.04516129032258064</v>
+        <v>0.045</v>
       </c>
       <c r="S6">
-        <v>0.3548387096774194</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1125827814569536</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006622516556291391</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03311258278145696</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1854304635761589</v>
+        <v>0.1781609195402299</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.152317880794702</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="R7">
-        <v>0.1059602649006623</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="S7">
-        <v>0.4039735099337748</v>
+        <v>0.4080459770114943</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1056105610561056</v>
+        <v>0.1125319693094629</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.033003300330033</v>
+        <v>0.03069053708439898</v>
       </c>
       <c r="E8">
-        <v>0.0033003300330033</v>
+        <v>0.002557544757033248</v>
       </c>
       <c r="F8">
-        <v>0.08250825082508251</v>
+        <v>0.06905370843989769</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1155115511551155</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0198019801980198</v>
+        <v>0.02046035805626599</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1749174917491749</v>
+        <v>0.1611253196930946</v>
       </c>
       <c r="R8">
-        <v>0.07260726072607261</v>
+        <v>0.08439897698209718</v>
       </c>
       <c r="S8">
-        <v>0.3927392739273927</v>
+        <v>0.3887468030690537</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06432748538011696</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07602339181286549</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09941520467836257</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01754385964912281</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1461988304093567</v>
+        <v>0.1407766990291262</v>
       </c>
       <c r="R9">
-        <v>0.1111111111111111</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="S9">
-        <v>0.4853801169590643</v>
+        <v>0.4660194174757282</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1143187066974596</v>
+        <v>0.1115173674588665</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01963048498845266</v>
+        <v>0.01919561243144424</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0009140767824497258</v>
       </c>
       <c r="F10">
-        <v>0.07621247113163972</v>
+        <v>0.07861060329067641</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1166281755196305</v>
+        <v>0.1170018281535649</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0138568129330254</v>
+        <v>0.01462522851919561</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1789838337182448</v>
+        <v>0.1727605118829982</v>
       </c>
       <c r="R10">
-        <v>0.06812933025404157</v>
+        <v>0.07769652650822668</v>
       </c>
       <c r="S10">
-        <v>0.4122401847575058</v>
+        <v>0.4076782449725777</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.1373390557939914</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07653061224489796</v>
+        <v>0.08583690987124463</v>
       </c>
       <c r="K11">
-        <v>0.1989795918367347</v>
+        <v>0.2060085836909871</v>
       </c>
       <c r="L11">
-        <v>0.5816326530612245</v>
+        <v>0.5665236051502146</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.004291845493562232</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8620689655172413</v>
+        <v>0.8602941176470589</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1120689655172414</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="K12">
-        <v>0.008620689655172414</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="L12">
-        <v>0.01724137931034483</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7297297297297297</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2432432432432433</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02702702702702703</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02222222222222222</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.162962962962963</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="I15">
-        <v>0.1185185185185185</v>
+        <v>0.1117647058823529</v>
       </c>
       <c r="J15">
-        <v>0.2814814814814815</v>
+        <v>0.3</v>
       </c>
       <c r="K15">
-        <v>0.05925925925925926</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02222222222222222</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07407407407407407</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2592592592592592</v>
+        <v>0.2588235294117647</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01515151515151515</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.143939393939394</v>
+        <v>0.1420118343195266</v>
       </c>
       <c r="I16">
-        <v>0.04545454545454546</v>
+        <v>0.05917159763313609</v>
       </c>
       <c r="J16">
-        <v>0.4393939393939394</v>
+        <v>0.4378698224852071</v>
       </c>
       <c r="K16">
-        <v>0.1060606060606061</v>
+        <v>0.1124260355029586</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02272727272727273</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="O16">
-        <v>0.06060606060606061</v>
+        <v>0.04733727810650887</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1666666666666667</v>
+        <v>0.1656804733727811</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01418439716312057</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.173758865248227</v>
+        <v>0.1834319526627219</v>
       </c>
       <c r="I17">
-        <v>0.09574468085106383</v>
+        <v>0.09171597633136094</v>
       </c>
       <c r="J17">
-        <v>0.4148936170212766</v>
+        <v>0.4201183431952663</v>
       </c>
       <c r="K17">
-        <v>0.07446808510638298</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02127659574468085</v>
+        <v>0.02071005917159763</v>
       </c>
       <c r="N17">
-        <v>0.003546099290780142</v>
+        <v>0.002958579881656805</v>
       </c>
       <c r="O17">
-        <v>0.04964539007092199</v>
+        <v>0.05325443786982249</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1524822695035461</v>
+        <v>0.1449704142011834</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.09677419354838709</v>
+        <v>0.1235294117647059</v>
       </c>
       <c r="I18">
-        <v>0.1290322580645161</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J18">
-        <v>0.3951612903225806</v>
+        <v>0.4</v>
       </c>
       <c r="K18">
-        <v>0.1854838709677419</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02419354838709677</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03225806451612903</v>
+        <v>0.04117647058823529</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1370967741935484</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01147028154327424</v>
+        <v>0.01280956447480786</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2127215849843587</v>
+        <v>0.2203245089666951</v>
       </c>
       <c r="I19">
-        <v>0.1094890510948905</v>
+        <v>0.1067463706233988</v>
       </c>
       <c r="J19">
-        <v>0.37851929092805</v>
+        <v>0.3783091374893254</v>
       </c>
       <c r="K19">
-        <v>0.0948905109489051</v>
+        <v>0.0888129803586678</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02398331595411887</v>
+        <v>0.02391118701964133</v>
       </c>
       <c r="N19">
-        <v>0.001042752867570386</v>
+        <v>0.001707941929974381</v>
       </c>
       <c r="O19">
-        <v>0.05213764337851929</v>
+        <v>0.05807002561912895</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1157455683003128</v>
+        <v>0.1093082835183604</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Vanderbilt_A.xlsx
+++ b/team_specific_matrix/Vanderbilt_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1971326164874552</v>
+        <v>0.2125748502994012</v>
       </c>
       <c r="C2">
-        <v>0.5842293906810035</v>
+        <v>0.5538922155688623</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02150537634408602</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1218637992831541</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07526881720430108</v>
+        <v>0.0718562874251497</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01162790697674419</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="C3">
-        <v>0.04069767441860465</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03488372093023256</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.686046511627907</v>
+        <v>0.6943005181347151</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2267441860465116</v>
+        <v>0.2227979274611399</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1111111111111111</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5555555555555556</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3023255813953488</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="E6">
-        <v>0.005</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="F6">
-        <v>0.07000000000000001</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.025</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.19</v>
+        <v>0.1898148148148148</v>
       </c>
       <c r="R6">
-        <v>0.045</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="S6">
-        <v>0.365</v>
+        <v>0.3564814814814815</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1149425287356322</v>
+        <v>0.13</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005747126436781609</v>
+        <v>0.005</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04022988505747126</v>
+        <v>0.035</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1781609195402299</v>
+        <v>0.165</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1494252873563219</v>
+        <v>0.15</v>
       </c>
       <c r="R7">
-        <v>0.103448275862069</v>
+        <v>0.095</v>
       </c>
       <c r="S7">
-        <v>0.4080459770114943</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1125319693094629</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03069053708439898</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="E8">
-        <v>0.002557544757033248</v>
+        <v>0.002314814814814815</v>
       </c>
       <c r="F8">
-        <v>0.06905370843989769</v>
+        <v>0.07175925925925926</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1304347826086956</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02046035805626599</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1611253196930946</v>
+        <v>0.162037037037037</v>
       </c>
       <c r="R8">
-        <v>0.08439897698209718</v>
+        <v>0.08101851851851852</v>
       </c>
       <c r="S8">
-        <v>0.3887468030690537</v>
+        <v>0.3935185185185185</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07766990291262135</v>
+        <v>0.08936170212765958</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08737864077669903</v>
+        <v>0.08085106382978724</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0970873786407767</v>
+        <v>0.09361702127659574</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01456310679611651</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1407766990291262</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="R9">
-        <v>0.116504854368932</v>
+        <v>0.1148936170212766</v>
       </c>
       <c r="S9">
-        <v>0.4660194174757282</v>
+        <v>0.4553191489361702</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1115173674588665</v>
+        <v>0.1180781758957655</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01919561243144424</v>
+        <v>0.02035830618892508</v>
       </c>
       <c r="E10">
-        <v>0.0009140767824497258</v>
+        <v>0.0008143322475570033</v>
       </c>
       <c r="F10">
-        <v>0.07861060329067641</v>
+        <v>0.0732899022801303</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1170018281535649</v>
+        <v>0.1197068403908795</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01462522851919561</v>
+        <v>0.01547231270358306</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1727605118829982</v>
+        <v>0.1775244299674267</v>
       </c>
       <c r="R10">
-        <v>0.07769652650822668</v>
+        <v>0.0732899022801303</v>
       </c>
       <c r="S10">
-        <v>0.4076782449725777</v>
+        <v>0.4014657980456026</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1373390557939914</v>
+        <v>0.1301115241635688</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08583690987124463</v>
+        <v>0.08550185873605948</v>
       </c>
       <c r="K11">
-        <v>0.2060085836909871</v>
+        <v>0.2044609665427509</v>
       </c>
       <c r="L11">
-        <v>0.5665236051502146</v>
+        <v>0.5762081784386617</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004291845493562232</v>
+        <v>0.003717472118959108</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8602941176470589</v>
+        <v>0.84472049689441</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1102941176470588</v>
+        <v>0.1180124223602484</v>
       </c>
       <c r="K12">
-        <v>0.007352941176470588</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="L12">
-        <v>0.02205882352941177</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.006211180124223602</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6976744186046512</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2790697674418605</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02325581395348837</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01764705882352941</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1764705882352941</v>
+        <v>0.1725888324873096</v>
       </c>
       <c r="I15">
-        <v>0.1117647058823529</v>
+        <v>0.1116751269035533</v>
       </c>
       <c r="J15">
-        <v>0.3</v>
+        <v>0.299492385786802</v>
       </c>
       <c r="K15">
-        <v>0.05882352941176471</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01764705882352941</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05882352941176471</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2588235294117647</v>
+        <v>0.2588832487309645</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01183431952662722</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1420118343195266</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="I16">
-        <v>0.05917159763313609</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="J16">
-        <v>0.4378698224852071</v>
+        <v>0.4362745098039216</v>
       </c>
       <c r="K16">
-        <v>0.1124260355029586</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01775147928994083</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="N16">
-        <v>0.005917159763313609</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="O16">
-        <v>0.04733727810650887</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1656804733727811</v>
+        <v>0.1617647058823529</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01775147928994083</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1834319526627219</v>
+        <v>0.1917098445595855</v>
       </c>
       <c r="I17">
-        <v>0.09171597633136094</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="J17">
-        <v>0.4201183431952663</v>
+        <v>0.4145077720207254</v>
       </c>
       <c r="K17">
-        <v>0.0650887573964497</v>
+        <v>0.06735751295336788</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02071005917159763</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="N17">
-        <v>0.002958579881656805</v>
+        <v>0.002590673575129534</v>
       </c>
       <c r="O17">
-        <v>0.05325443786982249</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1449704142011834</v>
+        <v>0.1424870466321244</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005882352941176471</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1235294117647059</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="I18">
-        <v>0.1176470588235294</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="J18">
-        <v>0.4</v>
+        <v>0.4010989010989011</v>
       </c>
       <c r="K18">
-        <v>0.1764705882352941</v>
+        <v>0.1813186813186813</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01764705882352941</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04117647058823529</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1176470588235294</v>
+        <v>0.1208791208791209</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01280956447480786</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2203245089666951</v>
+        <v>0.2131398013750955</v>
       </c>
       <c r="I19">
-        <v>0.1067463706233988</v>
+        <v>0.1084797555385791</v>
       </c>
       <c r="J19">
-        <v>0.3783091374893254</v>
+        <v>0.3758594346829641</v>
       </c>
       <c r="K19">
-        <v>0.0888129803586678</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02391118701964133</v>
+        <v>0.02291825821237586</v>
       </c>
       <c r="N19">
-        <v>0.001707941929974381</v>
+        <v>0.001527883880825057</v>
       </c>
       <c r="O19">
-        <v>0.05807002561912895</v>
+        <v>0.06264323911382735</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1093082835183604</v>
+        <v>0.1100076394194041</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Vanderbilt_A.xlsx
+++ b/team_specific_matrix/Vanderbilt_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2125748502994012</v>
+        <v>0.2147058823529412</v>
       </c>
       <c r="C2">
-        <v>0.5538922155688623</v>
+        <v>0.55</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01796407185628742</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1437125748502994</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0718562874251497</v>
+        <v>0.07058823529411765</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0155440414507772</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C3">
-        <v>0.03626943005181347</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0310880829015544</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6943005181347151</v>
+        <v>0.6974358974358974</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2227979274611399</v>
+        <v>0.2205128205128205</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09302325581395349</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6046511627906976</v>
+        <v>0.625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3023255813953488</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09259259259259259</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009259259259259259</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="E6">
-        <v>0.004629629629629629</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="F6">
-        <v>0.06944444444444445</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.212962962962963</v>
+        <v>0.2212389380530974</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02314814814814815</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1898148148148148</v>
+        <v>0.1858407079646018</v>
       </c>
       <c r="R6">
-        <v>0.04166666666666666</v>
+        <v>0.04424778761061947</v>
       </c>
       <c r="S6">
-        <v>0.3564814814814815</v>
+        <v>0.3584070796460177</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.13</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.035</v>
+        <v>0.03431372549019608</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.165</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.15</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="R7">
-        <v>0.095</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="S7">
-        <v>0.42</v>
+        <v>0.4215686274509804</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1064814814814815</v>
+        <v>0.1050328227571116</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03472222222222222</v>
+        <v>0.03719912472647702</v>
       </c>
       <c r="E8">
-        <v>0.002314814814814815</v>
+        <v>0.002188183807439825</v>
       </c>
       <c r="F8">
-        <v>0.07175925925925926</v>
+        <v>0.0700218818380744</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1296296296296296</v>
+        <v>0.1312910284463895</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01851851851851852</v>
+        <v>0.0175054704595186</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.162037037037037</v>
+        <v>0.1597374179431072</v>
       </c>
       <c r="R8">
-        <v>0.08101851851851852</v>
+        <v>0.0787746170678337</v>
       </c>
       <c r="S8">
-        <v>0.3935185185185185</v>
+        <v>0.3982494529540481</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08936170212765958</v>
+        <v>0.08979591836734693</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08085106382978724</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09361702127659574</v>
+        <v>0.08979591836734693</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01702127659574468</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.148936170212766</v>
+        <v>0.1591836734693877</v>
       </c>
       <c r="R9">
-        <v>0.1148936170212766</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="S9">
-        <v>0.4553191489361702</v>
+        <v>0.4448979591836735</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1180781758957655</v>
+        <v>0.1150512214342002</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02035830618892508</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="E10">
-        <v>0.0008143322475570033</v>
+        <v>0.0007880220646178094</v>
       </c>
       <c r="F10">
-        <v>0.0732899022801303</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1197068403908795</v>
+        <v>0.1182033096926714</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01547231270358306</v>
+        <v>0.01576044129235618</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1775244299674267</v>
+        <v>0.1804570527974783</v>
       </c>
       <c r="R10">
-        <v>0.0732899022801303</v>
+        <v>0.07249802994483845</v>
       </c>
       <c r="S10">
-        <v>0.4014657980456026</v>
+        <v>0.4018912529550828</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1301115241635688</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08550185873605948</v>
+        <v>0.08424908424908426</v>
       </c>
       <c r="K11">
-        <v>0.2044609665427509</v>
+        <v>0.2014652014652015</v>
       </c>
       <c r="L11">
-        <v>0.5762081784386617</v>
+        <v>0.5824175824175825</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003717472118959108</v>
+        <v>0.003663003663003663</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.84472049689441</v>
+        <v>0.8424242424242424</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1180124223602484</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="K12">
-        <v>0.006211180124223602</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="L12">
-        <v>0.02484472049689441</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006211180124223602</v>
+        <v>0.006060606060606061</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.72</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2448979591836735</v>
+        <v>0.24</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04081632653061224</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02538071065989848</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1725888324873096</v>
+        <v>0.1747572815533981</v>
       </c>
       <c r="I15">
-        <v>0.1116751269035533</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="J15">
-        <v>0.299492385786802</v>
+        <v>0.2912621359223301</v>
       </c>
       <c r="K15">
-        <v>0.06091370558375635</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01522842639593909</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05583756345177665</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2588832487309645</v>
+        <v>0.2572815533980582</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009803921568627451</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1372549019607843</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="I16">
-        <v>0.07352941176470588</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="J16">
-        <v>0.4362745098039216</v>
+        <v>0.4433962264150944</v>
       </c>
       <c r="K16">
-        <v>0.107843137254902</v>
+        <v>0.1037735849056604</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02450980392156863</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="N16">
-        <v>0.004901960784313725</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="O16">
-        <v>0.04411764705882353</v>
+        <v>0.05188679245283019</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1617647058823529</v>
+        <v>0.1556603773584906</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0155440414507772</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1917098445595855</v>
+        <v>0.1995073891625616</v>
       </c>
       <c r="I17">
-        <v>0.08808290155440414</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="J17">
-        <v>0.4145077720207254</v>
+        <v>0.4014778325123153</v>
       </c>
       <c r="K17">
-        <v>0.06735751295336788</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02072538860103627</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="N17">
-        <v>0.002590673575129534</v>
+        <v>0.002463054187192118</v>
       </c>
       <c r="O17">
-        <v>0.05699481865284974</v>
+        <v>0.05665024630541872</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1424870466321244</v>
+        <v>0.1477832512315271</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005494505494505495</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1153846153846154</v>
+        <v>0.1122994652406417</v>
       </c>
       <c r="I18">
-        <v>0.1153846153846154</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J18">
-        <v>0.4010989010989011</v>
+        <v>0.4010695187165775</v>
       </c>
       <c r="K18">
-        <v>0.1813186813186813</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02197802197802198</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03846153846153846</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1208791208791209</v>
+        <v>0.1229946524064171</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01298701298701299</v>
+        <v>0.01322556943423953</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2131398013750955</v>
+        <v>0.2167523879500367</v>
       </c>
       <c r="I19">
-        <v>0.1084797555385791</v>
+        <v>0.106539309331374</v>
       </c>
       <c r="J19">
-        <v>0.3758594346829641</v>
+        <v>0.3754592211609111</v>
       </c>
       <c r="K19">
-        <v>0.09243697478991597</v>
+        <v>0.09184423218221896</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02291825821237586</v>
+        <v>0.0227773695811903</v>
       </c>
       <c r="N19">
-        <v>0.001527883880825057</v>
+        <v>0.001469507714915503</v>
       </c>
       <c r="O19">
-        <v>0.06264323911382735</v>
+        <v>0.06171932402645114</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1100076394194041</v>
+        <v>0.1102130786186628</v>
       </c>
     </row>
   </sheetData>
